--- a/HTML/0 Excel SRC Files/Body.xlsx
+++ b/HTML/0 Excel SRC Files/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B766D1-0BEC-4167-A53B-ABEBB95703E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D443B54-4DD9-436A-85FD-1DDD218D567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="213">
   <si>
     <t>الفطار | العشاء</t>
   </si>
@@ -715,12 +715,15 @@
   <si>
     <t>Meal Size (gm) ( Click to Link )</t>
   </si>
+  <si>
+    <t xml:space="preserve">Improve Happites + </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +870,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1578,7 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1950,6 +1961,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,6 +1993,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2040,31 +2078,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2608,11 +2628,11 @@
       <c r="D1" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="127" t="s">
+      <c r="E1" s="130"/>
+      <c r="F1" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="128"/>
+      <c r="G1" s="129"/>
       <c r="I1" s="65" t="s">
         <v>167</v>
       </c>
@@ -2633,7 +2653,7 @@
       <c r="D2" s="96">
         <v>18</v>
       </c>
-      <c r="E2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2680,7 @@
       <c r="D3" s="97">
         <v>22</v>
       </c>
-      <c r="E3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="11" t="s">
         <v>172</v>
       </c>
@@ -2687,7 +2707,7 @@
       <c r="D4" s="97">
         <v>22</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="9" t="s">
         <v>171</v>
       </c>
@@ -2714,7 +2734,7 @@
       <c r="D5" s="98">
         <v>22</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="9" t="s">
         <v>170</v>
       </c>
@@ -2737,7 +2757,7 @@
       <c r="D6" s="97">
         <v>40</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="9" t="s">
         <v>169</v>
       </c>
@@ -2760,7 +2780,7 @@
       <c r="D7" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="10" t="s">
         <v>40</v>
       </c>
@@ -2779,7 +2799,7 @@
         <v>203</v>
       </c>
       <c r="D8" s="97"/>
-      <c r="E8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
@@ -2798,7 +2818,7 @@
       <c r="B9" s="99"/>
       <c r="C9" s="105"/>
       <c r="D9" s="99"/>
-      <c r="E9" s="129"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="8" t="s">
         <v>100</v>
       </c>
@@ -2821,7 +2841,7 @@
       </c>
       <c r="C10" s="105"/>
       <c r="D10" s="97"/>
-      <c r="E10" s="129"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="9"/>
       <c r="G10" s="97"/>
     </row>
@@ -2838,13 +2858,13 @@
       <c r="D11" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="9"/>
       <c r="G11" s="97"/>
-      <c r="I11" s="125" t="s">
+      <c r="I11" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="J11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="89" t="s">
@@ -2859,7 +2879,7 @@
       <c r="D12" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="129"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="9"/>
       <c r="G12" s="97"/>
       <c r="I12" s="15" t="s">
@@ -2882,7 +2902,7 @@
       <c r="D13" s="96">
         <v>41</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="10"/>
       <c r="G13" s="103"/>
       <c r="I13" s="15" t="s">
@@ -2905,7 +2925,7 @@
       <c r="D14" s="96">
         <v>84</v>
       </c>
-      <c r="E14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
@@ -2932,7 +2952,7 @@
       <c r="D15" s="97">
         <v>169</v>
       </c>
-      <c r="E15" s="129"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="8" t="s">
         <v>38</v>
       </c>
@@ -2959,7 +2979,7 @@
       <c r="D16" s="97">
         <v>142</v>
       </c>
-      <c r="E16" s="129"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="9"/>
       <c r="G16" s="97"/>
       <c r="I16" s="15" t="s">
@@ -2982,7 +3002,7 @@
       <c r="D17" s="97">
         <v>35</v>
       </c>
-      <c r="E17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="9"/>
       <c r="G17" s="97"/>
       <c r="I17" s="15" t="s">
@@ -3045,10 +3065,10 @@
       <c r="D20" s="98">
         <v>75</v>
       </c>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -3090,7 +3110,7 @@
       <c r="B31" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="125" t="s">
         <v>209</v>
       </c>
       <c r="D31" s="112" t="s">
@@ -3152,14 +3172,14 @@
       <c r="D1" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="131" t="s">
         <v>34</v>
       </c>
       <c r="I1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="131"/>
+      <c r="F2" s="132"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3269,11 +3289,11 @@
       <c r="C1" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="G1" s="130" t="s">
+      <c r="E1" s="133"/>
+      <c r="G1" s="131" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3293,7 +3313,7 @@
       <c r="E2" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="131"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="73" t="s">
@@ -3394,24 +3414,24 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="135"/>
       <c r="D1" s="69" t="s">
         <v>41</v>
       </c>
@@ -3421,10 +3441,10 @@
       <c r="G1" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="156"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75">
@@ -3442,8 +3462,8 @@
       <c r="G2" s="70">
         <v>74.8</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77">
@@ -3452,6 +3472,7 @@
       <c r="B3" s="78">
         <v>45135</v>
       </c>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="77">
@@ -3480,6 +3501,10 @@
       <c r="G5" s="10">
         <v>29</v>
       </c>
+      <c r="J5" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="164"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77">
@@ -3488,8 +3513,13 @@
       <c r="B6" s="78">
         <v>45204</v>
       </c>
+      <c r="D6" s="90"/>
       <c r="F6" s="1"/>
       <c r="G6" s="90"/>
+      <c r="J6" s="165">
+        <v>45234</v>
+      </c>
+      <c r="K6" s="165"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="77">
@@ -3498,11 +3528,16 @@
       <c r="B7" s="78">
         <v>45211</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="D7" s="90"/>
+      <c r="F7" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="163"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="90"/>
+      <c r="J7" s="166">
+        <v>45264</v>
+      </c>
+      <c r="K7" s="166"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77">
@@ -3511,74 +3546,131 @@
       <c r="B8" s="78">
         <v>45232</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="D8" s="90"/>
+      <c r="F8" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="161"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="90"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="77">
+        <v>84.8</v>
+      </c>
+      <c r="B9" s="78">
+        <v>45234</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="77"/>
       <c r="B10" s="79"/>
+      <c r="D10" s="90"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="77"/>
       <c r="B11" s="79"/>
+      <c r="D11" s="90"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="77"/>
       <c r="B12" s="79"/>
+      <c r="D12" s="90"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="77"/>
       <c r="B13" s="79"/>
+      <c r="D13" s="90"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="77"/>
       <c r="B14" s="79"/>
+      <c r="D14" s="90"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="77"/>
       <c r="B15" s="79"/>
+      <c r="D15" s="90"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="77"/>
       <c r="B16" s="79"/>
-    </row>
-    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="77"/>
       <c r="B17" s="79"/>
-    </row>
-    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="77"/>
       <c r="B18" s="79"/>
-    </row>
-    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
       <c r="B19" s="79"/>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="77"/>
       <c r="B20" s="79"/>
-    </row>
-    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="77"/>
       <c r="B21" s="79"/>
-    </row>
-    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+    </row>
+    <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="80"/>
       <c r="B22" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="21">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J1" location="Food!A1" display="Back" xr:uid="{77E8B835-1F4E-46AA-BF38-B69E487B10CC}"/>
@@ -3638,12 +3730,12 @@
       <c r="I1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="131" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="150" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -3652,7 +3744,7 @@
       <c r="C2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="144" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="51" t="s">
@@ -3665,15 +3757,15 @@
         <v>67</v>
       </c>
       <c r="I2" s="53"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="28"/>
       <c r="C3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="54" t="s">
         <v>42</v>
       </c>
@@ -3684,10 +3776,10 @@
       <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="28"/>
       <c r="C4" s="32"/>
-      <c r="E4" s="137"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="57" t="s">
         <v>43</v>
       </c>
@@ -3700,15 +3792,15 @@
       <c r="I4" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="143" t="s">
+      <c r="K4" s="152" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="141"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="28"/>
       <c r="C5" s="32"/>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="155" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="46" t="s">
@@ -3721,13 +3813,13 @@
       <c r="I5" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="144"/>
+      <c r="K5" s="153"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="28"/>
       <c r="C6" s="32"/>
-      <c r="E6" s="147"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="41" t="s">
         <v>77</v>
       </c>
@@ -3736,7 +3828,7 @@
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="150" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -3745,7 +3837,7 @@
       <c r="C7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="148"/>
+      <c r="E7" s="157"/>
       <c r="F7" s="49" t="s">
         <v>84</v>
       </c>
@@ -3754,109 +3846,109 @@
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="152" t="s">
+      <c r="A8" s="150"/>
+      <c r="B8" s="161" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="149" t="s">
+      <c r="E8" s="158" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="162">
         <v>1.8229166666666667</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="150"/>
+      <c r="E9" s="159"/>
       <c r="F9" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="154"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="150" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="160" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="151" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="3"/>
       <c r="C12" s="32"/>
-      <c r="E12" s="141"/>
+      <c r="E12" s="150"/>
       <c r="F12" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="142"/>
+      <c r="I12" s="151"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="3"/>
       <c r="C13" s="32"/>
-      <c r="E13" s="141"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="62"/>
-      <c r="I13" s="142"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="3"/>
       <c r="C14" s="32"/>
-      <c r="E14" s="141"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="62"/>
       <c r="I14" s="64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="3"/>
       <c r="C15" s="32"/>
-      <c r="E15" s="145"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="63"/>
       <c r="I15" s="64" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="3"/>
       <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="150" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -3865,28 +3957,28 @@
       <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="3"/>
       <c r="C18" s="32"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="3"/>
       <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="31"/>
       <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="149"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -3954,12 +4046,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="130" t="s">
+      <c r="V1" s="131" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="131"/>
+      <c r="V2" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4008,7 +4100,7 @@
       <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="131" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4031,7 +4123,7 @@
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
